--- a/data/trans_bre/P1417-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P1417-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>2.220210908561409</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3.107512854877988</v>
+        <v>3.10751285487799</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>2.942308566638152</v>
@@ -649,7 +649,7 @@
         <v>1.616156278485834</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.8431349551558975</v>
+        <v>0.8431349551558979</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8757995618833639</v>
+        <v>0.8096944820518561</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.945710939873381</v>
+        <v>1.961114469623897</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.7676298773661075</v>
+        <v>0.7488386385687354</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.134152045050421</v>
+        <v>1.100981078972295</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.6142983578109267</v>
+        <v>0.5416041387310081</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.528131958668322</v>
+        <v>1.645940482511737</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3301750458036298</v>
+        <v>0.3199248197367794</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.2262523556024936</v>
+        <v>0.1950709953619487</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.844437812407115</v>
+        <v>2.840049448791392</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>4.296552637517</v>
+        <v>4.312531559949213</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.802677388255876</v>
+        <v>3.569885983599148</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>4.887963896045097</v>
+        <v>5.038774368884487</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>9.212579880608271</v>
+        <v>10.13838249672337</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>14.80088665200432</v>
+        <v>15.86356142607763</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>4.382508603722908</v>
+        <v>4.010195726933787</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.741605394544843</v>
+        <v>1.719469896206686</v>
       </c>
     </row>
     <row r="7">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.5038012458477414</v>
+        <v>0.4839069446163626</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.042708690512568</v>
+        <v>1.018898400743002</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.9956380868289209</v>
+        <v>1.009467862701767</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.219225335473713</v>
+        <v>2.198165116616274</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.9235969341141708</v>
+        <v>0.590760220547987</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.408728561624251</v>
+        <v>1.437030881171899</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>1.469852651740614</v>
+        <v>1.411861061969546</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>1.782427570103178</v>
+        <v>1.704604440856949</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.687352048169307</v>
+        <v>1.738663243499007</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.561739755030005</v>
+        <v>2.553151114072714</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2.348919154314368</v>
+        <v>2.456768870418867</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.843356818854726</v>
+        <v>3.908432592652097</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>12.80278421163356</v>
+        <v>12.73209330327934</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>11.49356884716443</v>
+        <v>11.32053820716178</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>11.94103073883526</v>
+        <v>13.41934768677372</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>6.234593726060062</v>
+        <v>5.899772040988776</v>
       </c>
     </row>
     <row r="10">
@@ -860,24 +860,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.5654665822899917</v>
+        <v>-0.3811576476823682</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.828101800007894</v>
+        <v>0.8694357602302109</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.7140949069029547</v>
+        <v>0.7561988873389125</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>2.359717129644481</v>
-      </c>
-      <c r="G11" s="6" t="n">
-        <v>-1</v>
-      </c>
+        <v>2.455069034987097</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
       <c r="H11" s="6" t="inlineStr"/>
       <c r="I11" s="6" t="inlineStr"/>
       <c r="J11" s="6" t="n">
-        <v>3.576155029280462</v>
+        <v>3.044096491165166</v>
       </c>
     </row>
     <row r="12">
@@ -888,22 +886,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.079070528230357</v>
+        <v>2.358789730839066</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.838872583925406</v>
+        <v>3.837522000901425</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.430940873102208</v>
+        <v>3.374202581842041</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.1410008697741</v>
+        <v>5.023777574780407</v>
       </c>
       <c r="G12" s="6" t="inlineStr"/>
       <c r="H12" s="6" t="inlineStr"/>
       <c r="I12" s="6" t="inlineStr"/>
       <c r="J12" s="6" t="n">
-        <v>55.92181900662107</v>
+        <v>47.05640495324987</v>
       </c>
     </row>
     <row r="13">
@@ -950,28 +948,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8119718114070827</v>
+        <v>0.8405821556961707</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.731076146856503</v>
+        <v>1.731250399471338</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.329626773162165</v>
+        <v>1.304012146329685</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>2.604993642659497</v>
+        <v>2.695996035597874</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>1.180677324601156</v>
+        <v>1.15336121304535</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>2.678364020315358</v>
+        <v>2.770413415810076</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.571849213251901</v>
+        <v>1.622027563603778</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1.697175672441606</v>
+        <v>1.772070055595965</v>
       </c>
     </row>
     <row r="15">
@@ -982,28 +980,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.867052760272104</v>
+        <v>1.809896593570369</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.901875725778682</v>
+        <v>2.877057112015533</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.548088952314889</v>
+        <v>2.469992460795122</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4.030627417022296</v>
+        <v>3.985241672580844</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>7.390043603253314</v>
+        <v>6.83957813070254</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9.806115624964329</v>
+        <v>10.34199156933535</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>6.390676058983981</v>
+        <v>6.556720926302267</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>3.966850801963443</v>
+        <v>3.963127333628452</v>
       </c>
     </row>
     <row r="16">
